--- a/dane/Dane.xlsx
+++ b/dane/Dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rstudio\Ekonometria_projekt\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9299B2B-6F15-4300-93A1-B27CEC67C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713435A1-D0FD-46FE-A537-19FBB1F40F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6ABFAF0-7084-4B1A-BFCA-E0E160A184DC}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,77 +234,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,36 +253,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0364F0D4-0CA8-45F4-BCF8-08C4AA8461DC}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -680,598 +611,598 @@
     <col min="11" max="11" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>2023</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>129972</v>
       </c>
       <c r="D2" s="2">
         <v>4185.55</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0.48899999999999999</v>
       </c>
       <c r="F2" s="2">
         <v>5.95</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>2868311</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="2">
         <v>38.469000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="1">
         <v>818.05399999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2022</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>121421.258</v>
       </c>
       <c r="D3" s="2">
         <v>3953.85</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="F3" s="2">
         <v>6.87</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>2920263</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="2">
         <v>37.204000000000001</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="2">
         <v>785.42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>113183.57799999999</v>
       </c>
       <c r="D4" s="2">
         <v>3676.46</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F4" s="2">
         <v>3.07</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>2941915</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="2">
         <v>39.829000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="1">
         <v>753.94</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2020</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>106582.97100000001</v>
       </c>
       <c r="D5" s="2">
         <v>3449.62</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F5" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>2944145</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="2">
         <v>42.268999999999998</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="1">
         <v>733.83100000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>110025.41</v>
       </c>
       <c r="D6" s="2">
         <v>3534.88</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-5.0799999999999998E-2</v>
       </c>
       <c r="F6" s="2">
         <v>1.45</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>2891049</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="2">
         <v>46.631</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="1">
         <v>735.58399999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>104669.045</v>
       </c>
       <c r="D7" s="2">
         <v>3431.13</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>-4.7E-2</v>
       </c>
       <c r="F7" s="2">
         <v>1.73</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>2868222</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="2">
         <v>46.63</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="1">
         <v>707.70399999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2017</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>99553.615999999995</v>
       </c>
       <c r="D8" s="2">
         <v>3331.11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-4.7E-2</v>
       </c>
       <c r="F8" s="2">
         <v>1.51</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>2844978</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>47.786000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <v>686.34900000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2016</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>92173.555999999997</v>
       </c>
       <c r="D9" s="2">
         <v>3196.11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="F9" s="2">
         <v>0.49</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>2807010</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="2">
         <v>48.494</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="1">
         <v>657.89400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2015</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>88781.819000000003</v>
       </c>
       <c r="D10" s="2">
         <v>3085.65</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>-2.47E-2</v>
       </c>
       <c r="F10" s="2">
         <v>0.51</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>2757799</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>47.389000000000003</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="1">
         <v>640.51599999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>84246.766000000003</v>
       </c>
       <c r="D11" s="2">
         <v>2985.17</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F11" s="2">
         <v>0.91</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>2698910</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="2">
         <v>48.158000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="1">
         <v>605.25199999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2013</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>79729.508000000002</v>
       </c>
       <c r="D12" s="2">
         <v>2867.28</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>1.5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>2616881</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="2">
         <v>47.591000000000001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="1">
         <v>588.61500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2012</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>79110.377999999997</v>
       </c>
       <c r="D13" s="2">
         <v>2800.38</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="F13" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>2499409</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="2">
         <v>46.904000000000003</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="1">
         <v>591.26099999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2011</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>75569.073000000004</v>
       </c>
       <c r="D14" s="2">
         <v>2747.81</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>6.1699999999999998E-2</v>
       </c>
       <c r="F14" s="2">
         <v>2.08</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>2380974</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="2">
         <v>47.24</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="1">
         <v>575.09900000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>2010</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>70014.207999999999</v>
       </c>
       <c r="D15" s="2">
         <v>2616.06</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>3.04E-2</v>
       </c>
       <c r="F15" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>2217294</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="2">
         <v>47.487000000000002</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="1">
         <v>548.72299999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2009</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>67078.120999999999</v>
       </c>
       <c r="D16" s="2">
         <v>2494.87</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="F16" s="2">
         <v>0.31</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>2121178</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="2">
         <v>47.573999999999998</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="1">
         <v>534.97500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>2008</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>66594.100999999995</v>
       </c>
       <c r="D17" s="2">
         <v>2589.6799999999998</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>0.42220000000000002</v>
       </c>
       <c r="F17" s="2">
         <v>2.63</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>2025307</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="2">
         <v>49.463000000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="1">
         <v>523.505</v>
       </c>
     </row>

--- a/dane/Dane.xlsx
+++ b/dane/Dane.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rstudio\Ekonometria_projekt\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBDF64-D230-448C-B421-AC021E9E3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFA29D-B062-484E-B4C4-04FD6316A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6ABFAF0-7084-4B1A-BFCA-E0E160A184DC}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -157,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -180,9 +180,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -498,9 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0364F0D4-0CA8-45F4-BCF8-08C4AA8461DC}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -513,10 +516,11 @@
     <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="12" max="12" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -580,13 +584,16 @@
         <v>593244</v>
       </c>
       <c r="J2" s="6">
-        <v>38469</v>
+        <v>38.469000000000001</v>
       </c>
       <c r="K2" s="7">
         <v>818054</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="9">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -615,13 +622,16 @@
         <v>554816</v>
       </c>
       <c r="J3" s="6">
-        <v>37204</v>
+        <v>37.204000000000001</v>
       </c>
       <c r="K3" s="6">
         <v>785421</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="9">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -650,13 +660,16 @@
         <v>583134</v>
       </c>
       <c r="J4" s="6">
-        <v>39829</v>
+        <v>39.829000000000001</v>
       </c>
       <c r="K4" s="7">
         <v>753941</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="9">
+        <v>3.5939999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -685,13 +698,16 @@
         <v>543806</v>
       </c>
       <c r="J5" s="6">
-        <v>42269</v>
+        <v>42.268999999999998</v>
       </c>
       <c r="K5" s="7">
         <v>733831</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="9">
+        <v>3.8809999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -720,13 +736,16 @@
         <v>550565</v>
       </c>
       <c r="J6" s="6">
-        <v>46631</v>
+        <v>46.631</v>
       </c>
       <c r="K6" s="7">
         <v>735584</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="9">
+        <v>3.1629999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -755,13 +774,16 @@
         <v>542461</v>
       </c>
       <c r="J7" s="6">
-        <v>46631</v>
+        <v>46.631</v>
       </c>
       <c r="K7" s="7">
         <v>707704</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="9">
+        <v>3.3839999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -790,13 +812,16 @@
         <v>549678</v>
       </c>
       <c r="J8" s="6">
-        <v>47786</v>
+        <v>47.786000000000001</v>
       </c>
       <c r="K8" s="7">
         <v>686349</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="9">
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -825,13 +850,16 @@
         <v>554436</v>
       </c>
       <c r="J9" s="6">
-        <v>48494</v>
+        <v>48.494</v>
       </c>
       <c r="K9" s="7">
         <v>657894</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="9">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -860,13 +888,16 @@
         <v>571809</v>
       </c>
       <c r="J10" s="6">
-        <v>47389</v>
+        <v>47.389000000000003</v>
       </c>
       <c r="K10" s="7">
         <v>640516</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="9">
+        <v>4.6120000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -895,13 +926,16 @@
         <v>585656</v>
       </c>
       <c r="J11" s="6">
-        <v>48158</v>
+        <v>48.158000000000001</v>
       </c>
       <c r="K11" s="7">
         <v>605252</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="9">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -930,13 +964,16 @@
         <v>615596</v>
       </c>
       <c r="J12" s="6">
-        <v>47591</v>
+        <v>47.591000000000001</v>
       </c>
       <c r="K12" s="7">
         <v>588615</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="9">
+        <v>5.3159999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -965,13 +1002,16 @@
         <v>618780</v>
       </c>
       <c r="J13" s="6">
-        <v>46904</v>
+        <v>46.904000000000003</v>
       </c>
       <c r="K13" s="7">
         <v>591261</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="9">
+        <v>5.3719999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1000,13 +1040,16 @@
         <v>679068</v>
       </c>
       <c r="J14" s="6">
-        <v>47241</v>
+        <v>47.241</v>
       </c>
       <c r="K14" s="7">
         <v>575099</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="9">
+        <v>5.9669999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1035,13 +1078,16 @@
         <v>719653</v>
       </c>
       <c r="J15" s="6">
-        <v>47487</v>
+        <v>47.487000000000002</v>
       </c>
       <c r="K15" s="7">
         <v>548723</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="9">
+        <v>7.0430000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1070,13 +1116,16 @@
         <v>715659</v>
       </c>
       <c r="J16" s="6">
-        <v>47574</v>
+        <v>47.573999999999998</v>
       </c>
       <c r="K16" s="7">
         <v>534975</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="9">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1105,10 +1154,13 @@
         <v>687425</v>
       </c>
       <c r="J17" s="6">
-        <v>49463</v>
+        <v>49.463000000000001</v>
       </c>
       <c r="K17" s="7">
         <v>523505</v>
+      </c>
+      <c r="M17" s="9">
+        <v>7.508</v>
       </c>
     </row>
   </sheetData>

--- a/dane/Dane.xlsx
+++ b/dane/Dane.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rstudio\Ekonometria_projekt\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFA29D-B062-484E-B4C4-04FD6316A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C3BEB-39CA-4A8C-A4BE-5D5E67E1F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6ABFAF0-7084-4B1A-BFCA-E0E160A184DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B6ABFAF0-7084-4B1A-BFCA-E0E160A184DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>L.p</t>
   </si>
@@ -501,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0364F0D4-0CA8-45F4-BCF8-08C4AA8461DC}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A7" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -560,34 +561,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="C2" s="3">
-        <v>129972</v>
+        <v>66594.100999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>4185.55</v>
+        <v>2589.6799999999998</v>
       </c>
       <c r="E2" s="4">
-        <v>0.48899999999999999</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="F2" s="1">
-        <v>5.95</v>
+        <v>2.63</v>
       </c>
       <c r="G2" s="5">
-        <v>2868311</v>
+        <v>2025307</v>
       </c>
       <c r="H2" s="8">
-        <v>75195439</v>
+        <v>36338724</v>
       </c>
       <c r="I2" s="6">
-        <v>593244</v>
+        <v>687425</v>
       </c>
       <c r="J2" s="6">
-        <v>38.469000000000001</v>
+        <v>49.463000000000001</v>
       </c>
       <c r="K2" s="7">
-        <v>818054</v>
+        <v>523505</v>
       </c>
       <c r="M2" s="9">
         <v>3.0680000000000001</v>
@@ -598,34 +599,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="C3" s="3">
-        <v>121421.258</v>
+        <v>67078.120999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>3953.85</v>
+        <v>2494.87</v>
       </c>
       <c r="E3" s="4">
-        <v>1.9800000000000002E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>6.87</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="5">
-        <v>2920263</v>
+        <v>2121178</v>
       </c>
       <c r="H3" s="8">
-        <v>70853393</v>
+        <v>38781041</v>
       </c>
       <c r="I3" s="6">
-        <v>554816</v>
+        <v>715659</v>
       </c>
       <c r="J3" s="6">
-        <v>37.204000000000001</v>
-      </c>
-      <c r="K3" s="6">
-        <v>785421</v>
+        <v>47.573999999999998</v>
+      </c>
+      <c r="K3" s="7">
+        <v>534975</v>
       </c>
       <c r="M3" s="9">
         <v>3.12</v>
@@ -636,34 +637,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C4" s="3">
-        <v>113183.57799999999</v>
+        <v>70014.207999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>3676.46</v>
+        <v>2616.06</v>
       </c>
       <c r="E4" s="4">
-        <v>-5.8400000000000001E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>3.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G4" s="5">
-        <v>2941915</v>
+        <v>2217294</v>
       </c>
       <c r="H4" s="8">
-        <v>67201062</v>
+        <v>41149551</v>
       </c>
       <c r="I4" s="6">
-        <v>583134</v>
+        <v>719653</v>
       </c>
       <c r="J4" s="6">
-        <v>39.829000000000001</v>
+        <v>47.487000000000002</v>
       </c>
       <c r="K4" s="7">
-        <v>753941</v>
+        <v>548723</v>
       </c>
       <c r="M4" s="9">
         <v>3.5939999999999999</v>
@@ -674,34 +675,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C5" s="3">
-        <v>106582.97100000001</v>
+        <v>75569.073000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>3449.62</v>
+        <v>2747.81</v>
       </c>
       <c r="E5" s="4">
-        <v>-5.8400000000000001E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.14000000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="G5" s="5">
-        <v>2944145</v>
+        <v>2380974</v>
       </c>
       <c r="H5" s="8">
-        <v>64436575</v>
+        <v>43665510</v>
       </c>
       <c r="I5" s="6">
-        <v>543806</v>
+        <v>679068</v>
       </c>
       <c r="J5" s="6">
-        <v>42.268999999999998</v>
+        <v>47.241</v>
       </c>
       <c r="K5" s="7">
-        <v>733831</v>
+        <v>575099</v>
       </c>
       <c r="M5" s="9">
         <v>3.8809999999999998</v>
@@ -712,34 +713,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="3">
-        <v>110025.41</v>
+        <v>79110.377999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>3534.88</v>
+        <v>2800.38</v>
       </c>
       <c r="E6" s="4">
-        <v>-5.0799999999999998E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>1.45</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G6" s="5">
-        <v>2891049</v>
+        <v>2499409</v>
       </c>
       <c r="H6" s="8">
-        <v>61012407</v>
+        <v>45011717</v>
       </c>
       <c r="I6" s="6">
-        <v>550565</v>
+        <v>618780</v>
       </c>
       <c r="J6" s="6">
-        <v>46.631</v>
+        <v>46.904000000000003</v>
       </c>
       <c r="K6" s="7">
-        <v>735584</v>
+        <v>591261</v>
       </c>
       <c r="M6" s="9">
         <v>3.1629999999999998</v>
@@ -750,34 +751,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C7" s="3">
-        <v>104669.045</v>
+        <v>79729.508000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>3431.13</v>
+        <v>2867.28</v>
       </c>
       <c r="E7" s="4">
-        <v>-4.7E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="G7" s="5">
-        <v>2868222</v>
+        <v>2616881</v>
       </c>
       <c r="H7" s="8">
-        <v>57283188</v>
+        <v>46314404</v>
       </c>
       <c r="I7" s="6">
-        <v>542461</v>
+        <v>615596</v>
       </c>
       <c r="J7" s="6">
-        <v>46.631</v>
+        <v>47.591000000000001</v>
       </c>
       <c r="K7" s="7">
-        <v>707704</v>
+        <v>588615</v>
       </c>
       <c r="M7" s="9">
         <v>3.3839999999999999</v>
@@ -788,34 +789,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C8" s="3">
-        <v>99553.615999999995</v>
+        <v>84246.766000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>3331.11</v>
+        <v>2985.17</v>
       </c>
       <c r="E8" s="4">
-        <v>-4.7E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>1.51</v>
+        <v>0.91</v>
       </c>
       <c r="G8" s="5">
-        <v>2844978</v>
+        <v>2698910</v>
       </c>
       <c r="H8" s="8">
-        <v>54130715</v>
+        <v>48207392</v>
       </c>
       <c r="I8" s="6">
-        <v>549678</v>
+        <v>585656</v>
       </c>
       <c r="J8" s="6">
-        <v>47.786000000000001</v>
+        <v>48.158000000000001</v>
       </c>
       <c r="K8" s="7">
-        <v>686349</v>
+        <v>605252</v>
       </c>
       <c r="M8" s="9">
         <v>3.7810000000000001</v>
@@ -826,34 +827,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C9" s="3">
-        <v>92173.555999999997</v>
+        <v>88781.819000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>3196.11</v>
+        <v>3085.65</v>
       </c>
       <c r="E9" s="4">
-        <v>-4.4999999999999998E-2</v>
+        <v>-2.47E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="G9" s="5">
-        <v>2807010</v>
+        <v>2757799</v>
       </c>
       <c r="H9" s="8">
-        <v>52113531</v>
+        <v>50028014</v>
       </c>
       <c r="I9" s="6">
-        <v>554436</v>
+        <v>571809</v>
       </c>
       <c r="J9" s="6">
-        <v>48.494</v>
+        <v>47.389000000000003</v>
       </c>
       <c r="K9" s="7">
-        <v>657894</v>
+        <v>640516</v>
       </c>
       <c r="M9" s="9">
         <v>4.1040000000000001</v>
@@ -864,34 +865,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="3">
-        <v>88781.819000000003</v>
+        <v>92173.555999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>3085.65</v>
+        <v>3196.11</v>
       </c>
       <c r="E10" s="4">
-        <v>-2.47E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="G10" s="5">
-        <v>2757799</v>
+        <v>2807010</v>
       </c>
       <c r="H10" s="8">
-        <v>50028014</v>
+        <v>52113531</v>
       </c>
       <c r="I10" s="6">
-        <v>571809</v>
+        <v>554436</v>
       </c>
       <c r="J10" s="6">
-        <v>47.389000000000003</v>
+        <v>48.494</v>
       </c>
       <c r="K10" s="7">
-        <v>640516</v>
+        <v>657894</v>
       </c>
       <c r="M10" s="9">
         <v>4.6120000000000001</v>
@@ -902,34 +903,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="3">
-        <v>84246.766000000003</v>
+        <v>99553.615999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>2985.17</v>
+        <v>3331.11</v>
       </c>
       <c r="E11" s="4">
-        <v>-1.0999999999999999E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.91</v>
+        <v>1.51</v>
       </c>
       <c r="G11" s="5">
-        <v>2698910</v>
+        <v>2844978</v>
       </c>
       <c r="H11" s="8">
-        <v>48207392</v>
+        <v>54130715</v>
       </c>
       <c r="I11" s="6">
-        <v>585656</v>
+        <v>549678</v>
       </c>
       <c r="J11" s="6">
-        <v>48.158000000000001</v>
+        <v>47.786000000000001</v>
       </c>
       <c r="K11" s="7">
-        <v>605252</v>
+        <v>686349</v>
       </c>
       <c r="M11" s="9">
         <v>4.9800000000000004</v>
@@ -940,34 +941,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C12" s="3">
-        <v>79729.508000000002</v>
+        <v>104669.045</v>
       </c>
       <c r="D12" s="1">
-        <v>2867.28</v>
+        <v>3431.13</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="G12" s="5">
-        <v>2616881</v>
+        <v>2868222</v>
       </c>
       <c r="H12" s="8">
-        <v>46314404</v>
+        <v>57283188</v>
       </c>
       <c r="I12" s="6">
-        <v>615596</v>
+        <v>542461</v>
       </c>
       <c r="J12" s="6">
-        <v>47.591000000000001</v>
+        <v>46.631</v>
       </c>
       <c r="K12" s="7">
-        <v>588615</v>
+        <v>707704</v>
       </c>
       <c r="M12" s="9">
         <v>5.3159999999999998</v>
@@ -978,34 +979,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C13" s="3">
-        <v>79110.377999999997</v>
+        <v>110025.41</v>
       </c>
       <c r="D13" s="1">
-        <v>2800.38</v>
+        <v>3534.88</v>
       </c>
       <c r="E13" s="4">
-        <v>1.5100000000000001E-2</v>
+        <v>-5.0799999999999998E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>2.0099999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="G13" s="5">
-        <v>2499409</v>
+        <v>2891049</v>
       </c>
       <c r="H13" s="8">
-        <v>45011717</v>
+        <v>61012407</v>
       </c>
       <c r="I13" s="6">
-        <v>618780</v>
+        <v>550565</v>
       </c>
       <c r="J13" s="6">
-        <v>46.904000000000003</v>
+        <v>46.631</v>
       </c>
       <c r="K13" s="7">
-        <v>591261</v>
+        <v>735584</v>
       </c>
       <c r="M13" s="9">
         <v>5.3719999999999999</v>
@@ -1016,34 +1017,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="C14" s="3">
-        <v>75569.073000000004</v>
+        <v>106582.97100000001</v>
       </c>
       <c r="D14" s="1">
-        <v>2747.81</v>
+        <v>3449.62</v>
       </c>
       <c r="E14" s="4">
-        <v>6.1699999999999998E-2</v>
+        <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>2.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G14" s="5">
-        <v>2380974</v>
+        <v>2944145</v>
       </c>
       <c r="H14" s="8">
-        <v>43665510</v>
+        <v>64436575</v>
       </c>
       <c r="I14" s="6">
-        <v>679068</v>
+        <v>543806</v>
       </c>
       <c r="J14" s="6">
-        <v>47.241</v>
+        <v>42.268999999999998</v>
       </c>
       <c r="K14" s="7">
-        <v>575099</v>
+        <v>733831</v>
       </c>
       <c r="M14" s="9">
         <v>5.9669999999999996</v>
@@ -1054,34 +1055,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="C15" s="3">
-        <v>70014.207999999999</v>
+        <v>113183.57799999999</v>
       </c>
       <c r="D15" s="1">
-        <v>2616.06</v>
+        <v>3676.46</v>
       </c>
       <c r="E15" s="4">
-        <v>3.04E-2</v>
+        <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>1.1000000000000001</v>
+        <v>3.07</v>
       </c>
       <c r="G15" s="5">
-        <v>2217294</v>
+        <v>2941915</v>
       </c>
       <c r="H15" s="8">
-        <v>41149551</v>
+        <v>67201062</v>
       </c>
       <c r="I15" s="6">
-        <v>719653</v>
+        <v>583134</v>
       </c>
       <c r="J15" s="6">
-        <v>47.487000000000002</v>
+        <v>39.829000000000001</v>
       </c>
       <c r="K15" s="7">
-        <v>548723</v>
+        <v>753941</v>
       </c>
       <c r="M15" s="9">
         <v>7.0430000000000001</v>
@@ -1092,34 +1093,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="C16" s="3">
-        <v>67078.120999999999</v>
+        <v>121421.258</v>
       </c>
       <c r="D16" s="1">
-        <v>2494.87</v>
+        <v>3953.85</v>
       </c>
       <c r="E16" s="4">
-        <v>4.8500000000000001E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>0.31</v>
+        <v>6.87</v>
       </c>
       <c r="G16" s="5">
-        <v>2121178</v>
+        <v>2920263</v>
       </c>
       <c r="H16" s="8">
-        <v>38781041</v>
+        <v>70853393</v>
       </c>
       <c r="I16" s="6">
-        <v>715659</v>
+        <v>554816</v>
       </c>
       <c r="J16" s="6">
-        <v>47.573999999999998</v>
-      </c>
-      <c r="K16" s="7">
-        <v>534975</v>
+        <v>37.204000000000001</v>
+      </c>
+      <c r="K16" s="6">
+        <v>785421</v>
       </c>
       <c r="M16" s="9">
         <v>7.88</v>
@@ -1130,43 +1131,653 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="3">
-        <v>66594.100999999995</v>
+        <v>129972</v>
       </c>
       <c r="D17" s="1">
-        <v>2589.6799999999998</v>
+        <v>4185.55</v>
       </c>
       <c r="E17" s="4">
-        <v>0.42220000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>2.63</v>
+        <v>5.95</v>
       </c>
       <c r="G17" s="5">
-        <v>2025307</v>
+        <v>2868311</v>
       </c>
       <c r="H17" s="8">
-        <v>36338724</v>
+        <v>75195439</v>
       </c>
       <c r="I17" s="6">
-        <v>687425</v>
+        <v>593244</v>
       </c>
       <c r="J17" s="6">
-        <v>49.463000000000001</v>
+        <v>38.469000000000001</v>
       </c>
       <c r="K17" s="7">
-        <v>523505</v>
+        <v>818054</v>
       </c>
       <c r="M17" s="9">
         <v>7.508</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:D38">
-    <sortCondition descending="1" ref="C23:C38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E59F4B-6567-4FBA-960D-59A324D7B77A}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="3">
+        <v>129972</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4185.55</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2868311</v>
+      </c>
+      <c r="H2" s="8">
+        <v>75195439</v>
+      </c>
+      <c r="I2" s="6">
+        <v>593244</v>
+      </c>
+      <c r="J2" s="6">
+        <v>38.469000000000001</v>
+      </c>
+      <c r="K2" s="7">
+        <v>818054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="3">
+        <v>121421.258</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3953.85</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2920263</v>
+      </c>
+      <c r="H3" s="8">
+        <v>70853393</v>
+      </c>
+      <c r="I3" s="6">
+        <v>554816</v>
+      </c>
+      <c r="J3" s="6">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>785421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="3">
+        <v>113183.57799999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3676.46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2941915</v>
+      </c>
+      <c r="H4" s="8">
+        <v>67201062</v>
+      </c>
+      <c r="I4" s="6">
+        <v>583134</v>
+      </c>
+      <c r="J4" s="6">
+        <v>39.829000000000001</v>
+      </c>
+      <c r="K4" s="7">
+        <v>753941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="3">
+        <v>106582.97100000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3449.62</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2944145</v>
+      </c>
+      <c r="H5" s="8">
+        <v>64436575</v>
+      </c>
+      <c r="I5" s="6">
+        <v>543806</v>
+      </c>
+      <c r="J5" s="6">
+        <v>42.268999999999998</v>
+      </c>
+      <c r="K5" s="7">
+        <v>733831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="3">
+        <v>110025.41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3534.88</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-5.0799999999999998E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2891049</v>
+      </c>
+      <c r="H6" s="8">
+        <v>61012407</v>
+      </c>
+      <c r="I6" s="6">
+        <v>550565</v>
+      </c>
+      <c r="J6" s="6">
+        <v>46.631</v>
+      </c>
+      <c r="K6" s="7">
+        <v>735584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3">
+        <v>104669.045</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3431.13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2868222</v>
+      </c>
+      <c r="H7" s="8">
+        <v>57283188</v>
+      </c>
+      <c r="I7" s="6">
+        <v>542461</v>
+      </c>
+      <c r="J7" s="6">
+        <v>46.631</v>
+      </c>
+      <c r="K7" s="7">
+        <v>707704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="3">
+        <v>99553.615999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3331.11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2844978</v>
+      </c>
+      <c r="H8" s="8">
+        <v>54130715</v>
+      </c>
+      <c r="I8" s="6">
+        <v>549678</v>
+      </c>
+      <c r="J8" s="6">
+        <v>47.786000000000001</v>
+      </c>
+      <c r="K8" s="7">
+        <v>686349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="3">
+        <v>92173.555999999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3196.11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2807010</v>
+      </c>
+      <c r="H9" s="8">
+        <v>52113531</v>
+      </c>
+      <c r="I9" s="6">
+        <v>554436</v>
+      </c>
+      <c r="J9" s="6">
+        <v>48.494</v>
+      </c>
+      <c r="K9" s="7">
+        <v>657894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="3">
+        <v>88781.819000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3085.65</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2757799</v>
+      </c>
+      <c r="H10" s="8">
+        <v>50028014</v>
+      </c>
+      <c r="I10" s="6">
+        <v>571809</v>
+      </c>
+      <c r="J10" s="6">
+        <v>47.389000000000003</v>
+      </c>
+      <c r="K10" s="7">
+        <v>640516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="3">
+        <v>84246.766000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2985.17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2698910</v>
+      </c>
+      <c r="H11" s="8">
+        <v>48207392</v>
+      </c>
+      <c r="I11" s="6">
+        <v>585656</v>
+      </c>
+      <c r="J11" s="6">
+        <v>48.158000000000001</v>
+      </c>
+      <c r="K11" s="7">
+        <v>605252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="3">
+        <v>79729.508000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2867.28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2616881</v>
+      </c>
+      <c r="H12" s="8">
+        <v>46314404</v>
+      </c>
+      <c r="I12" s="6">
+        <v>615596</v>
+      </c>
+      <c r="J12" s="6">
+        <v>47.591000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>588615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C13" s="3">
+        <v>79110.377999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2800.38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2499409</v>
+      </c>
+      <c r="H13" s="8">
+        <v>45011717</v>
+      </c>
+      <c r="I13" s="6">
+        <v>618780</v>
+      </c>
+      <c r="J13" s="6">
+        <v>46.904000000000003</v>
+      </c>
+      <c r="K13" s="7">
+        <v>591261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75569.073000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2747.81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2380974</v>
+      </c>
+      <c r="H14" s="8">
+        <v>43665510</v>
+      </c>
+      <c r="I14" s="6">
+        <v>679068</v>
+      </c>
+      <c r="J14" s="6">
+        <v>47.241</v>
+      </c>
+      <c r="K14" s="7">
+        <v>575099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="3">
+        <v>70014.207999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2616.06</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2217294</v>
+      </c>
+      <c r="H15" s="8">
+        <v>41149551</v>
+      </c>
+      <c r="I15" s="6">
+        <v>719653</v>
+      </c>
+      <c r="J15" s="6">
+        <v>47.487000000000002</v>
+      </c>
+      <c r="K15" s="7">
+        <v>548723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C16" s="3">
+        <v>67078.120999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2494.87</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2121178</v>
+      </c>
+      <c r="H16" s="8">
+        <v>38781041</v>
+      </c>
+      <c r="I16" s="6">
+        <v>715659</v>
+      </c>
+      <c r="J16" s="6">
+        <v>47.573999999999998</v>
+      </c>
+      <c r="K16" s="7">
+        <v>534975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C17" s="3">
+        <v>66594.100999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2589.6799999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2025307</v>
+      </c>
+      <c r="H17" s="8">
+        <v>36338724</v>
+      </c>
+      <c r="I17" s="6">
+        <v>687425</v>
+      </c>
+      <c r="J17" s="6">
+        <v>49.463000000000001</v>
+      </c>
+      <c r="K17" s="7">
+        <v>523505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>